--- a/va_facility_data_2025-02-20/State College VA Clinic - Facility Data.xlsx"; filename*=UTF-8''State%20College%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/State College VA Clinic - Facility Data.xlsx"; filename*=UTF-8''State%20College%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9cc622afc617406ba18ed1f1e1c7f87f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R34ea9deb5f9a4a65b11504ad154908a0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1659575b13e042d7866c4db9137bdb6f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R255d2272c7ab4f51aef4f3d096e7222c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R72b8cbbfdbab42c9a060b0641ad7d345"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4a818fea119a47269bdc7c98b8947005"/>
   </x:sheets>
 </x:workbook>
 </file>
